--- a/MBE/docs/Planning_MBE.xlsx
+++ b/MBE/docs/Planning_MBE.xlsx
@@ -341,6 +341,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -349,12 +355,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,7 +639,7 @@
   <dimension ref="B3:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,66 +654,66 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
     </row>
     <row r="6" spans="2:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="17">
         <v>1</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="R6" s="17">
         <v>16</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="22" t="s">
         <v>7</v>
       </c>
     </row>

--- a/MBE/docs/Planning_MBE.xlsx
+++ b/MBE/docs/Planning_MBE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Analyse</t>
   </si>
@@ -41,13 +41,16 @@
     <t>Journal de bord</t>
   </si>
   <si>
-    <t>Planning prévu</t>
-  </si>
-  <si>
     <t>Présentation</t>
   </si>
   <si>
     <t>Périodes de 45min</t>
+  </si>
+  <si>
+    <t>Planning prévu - MBE</t>
+  </si>
+  <si>
+    <t>Dario, Jean-Daniel, Romain, Ronaldo</t>
   </si>
 </sst>
 </file>
@@ -90,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -307,11 +310,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -344,9 +356,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,6 +363,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S12"/>
+  <dimension ref="B3:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,68 +673,69 @@
     <col min="3" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" customWidth="1"/>
-    <col min="8" max="18" width="5.140625" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
+      <c r="B3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
     </row>
     <row r="6" spans="2:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
@@ -762,8 +787,8 @@
       <c r="R6" s="17">
         <v>16</v>
       </c>
-      <c r="S6" s="22" t="s">
-        <v>7</v>
+      <c r="S6" s="25" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
@@ -831,7 +856,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="1"/>
@@ -892,11 +917,36 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="16"/>
     </row>
+    <row r="13" spans="2:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="29">
+        <v>43175</v>
+      </c>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B3:R5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="P13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>